--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang Zheng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wen xun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="6945"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="199">
   <si>
     <t>Technical Assistant Final Duty Roster</t>
   </si>
   <si>
-    <t>Effective from 26th February 2018 to 3rd March 2018</t>
-  </si>
-  <si>
-    <t>Monday, 26th February 2018</t>
+    <t>Effective from 5th March 2018 to 10th March 2018</t>
+  </si>
+  <si>
+    <t>Monday, 5th March 2018</t>
   </si>
   <si>
     <t>Shift</t>
@@ -81,175 +81,184 @@
     <t>0815 - 1030</t>
   </si>
   <si>
+    <t>Jacson</t>
+  </si>
+  <si>
     <t>Wavda</t>
   </si>
   <si>
+    <t>Rui Xiang</t>
+  </si>
+  <si>
+    <t>Zhi Yin</t>
+  </si>
+  <si>
+    <t>Zhao Yan</t>
+  </si>
+  <si>
+    <t>Schubert</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>1030 - 1230</t>
+  </si>
+  <si>
+    <t>Qi Xuan</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>Neekita</t>
+  </si>
+  <si>
+    <t>Mariiam</t>
+  </si>
+  <si>
+    <t>Ushan</t>
+  </si>
+  <si>
+    <t>Hui Ann</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>1230 - 1430</t>
+  </si>
+  <si>
+    <t>Zhekent</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>1430 - 1630</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>1630 - 1830</t>
+  </si>
+  <si>
+    <t>Mio Kit</t>
+  </si>
+  <si>
+    <t>Wan Hui</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>1830 - 2000</t>
+  </si>
+  <si>
+    <t>Kuan Chan</t>
+  </si>
+  <si>
+    <t>Woon Khai</t>
+  </si>
+  <si>
+    <t>2000 - 2130</t>
+  </si>
+  <si>
+    <t>Tuesday, 6th March 2018</t>
+  </si>
+  <si>
+    <t>How Chen</t>
+  </si>
+  <si>
+    <t>Kai Shen</t>
+  </si>
+  <si>
+    <t>Khai Yen</t>
+  </si>
+  <si>
+    <t>Sin Yuen</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
     <t>Jen Yang</t>
   </si>
   <si>
+    <t>Hui Chong</t>
+  </si>
+  <si>
+    <t>Shanazar</t>
+  </si>
+  <si>
+    <t>Wednesday, 7th March 2018</t>
+  </si>
+  <si>
+    <t>Chris Chan</t>
+  </si>
+  <si>
+    <t>Ting Feng</t>
+  </si>
+  <si>
+    <t>Kai Vern</t>
+  </si>
+  <si>
+    <t>Christie</t>
+  </si>
+  <si>
+    <t>Ying Ming</t>
+  </si>
+  <si>
+    <t>Rubin</t>
+  </si>
+  <si>
+    <t>Thursday,  8th March 2018</t>
+  </si>
+  <si>
+    <t>Kah Yan</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Friday, 9th March 2018</t>
+  </si>
+  <si>
     <t>Yi Xuan</t>
   </si>
   <si>
-    <t>Chris Chan</t>
-  </si>
-  <si>
-    <t>Zhi Yin</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Bernice</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>1030 - 1230</t>
-  </si>
-  <si>
-    <t>Schubert</t>
-  </si>
-  <si>
-    <t>Neekita</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>1230 - 1430</t>
-  </si>
-  <si>
-    <t>Zhao Yan</t>
-  </si>
-  <si>
-    <t>Ushan</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>1430 - 1630</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>Hui Ann</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>1630 - 1830</t>
-  </si>
-  <si>
-    <t>Kai Vern</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>1830 - 2000</t>
-  </si>
-  <si>
-    <t>Mariiam</t>
-  </si>
-  <si>
-    <t>Kuan Chan</t>
-  </si>
-  <si>
-    <t>2000 - 2130</t>
-  </si>
-  <si>
-    <t>Tuesday, 27th February 2018</t>
-  </si>
-  <si>
-    <t>How Chen</t>
-  </si>
-  <si>
-    <t>Khai Yen</t>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Saturday, 10th March 2018</t>
+  </si>
+  <si>
+    <t>GM on 6th  March 2018</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Chairperson</t>
+  </si>
+  <si>
+    <t>Minutes Writer</t>
+  </si>
+  <si>
+    <t>Next M.W</t>
+  </si>
+  <si>
+    <t>0900 - 1800</t>
   </si>
   <si>
     <t>Marissa</t>
   </si>
   <si>
-    <t>Ming Yi</t>
-  </si>
-  <si>
-    <t>Christie</t>
-  </si>
-  <si>
-    <t>Shanazar</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Emir</t>
-  </si>
-  <si>
-    <t>Wan Hui</t>
-  </si>
-  <si>
-    <t>Wednesday, 28th February 2018</t>
-  </si>
-  <si>
-    <t>Sin Yuen</t>
-  </si>
-  <si>
-    <t>Wen Xun</t>
-  </si>
-  <si>
-    <t>Woon Khai</t>
-  </si>
-  <si>
-    <t>Rubin</t>
-  </si>
-  <si>
-    <t>Thursday,  1st March 2018</t>
-  </si>
-  <si>
-    <t>Jacson</t>
-  </si>
-  <si>
-    <t>Hui Chong</t>
-  </si>
-  <si>
-    <t>Evita</t>
-  </si>
-  <si>
-    <t>Friday, 2nd March 2018</t>
-  </si>
-  <si>
-    <t>Mio Kit</t>
-  </si>
-  <si>
-    <t>Saturday, 3rd March 2018</t>
-  </si>
-  <si>
-    <t>GM on 27th February 2018</t>
-  </si>
-  <si>
-    <t>Venue</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Chairperson</t>
-  </si>
-  <si>
-    <t>Minutes Writer</t>
-  </si>
-  <si>
-    <t>Next M.W</t>
-  </si>
-  <si>
-    <t>0900 - 1800</t>
-  </si>
-  <si>
-    <t>Jun Ming</t>
+    <t>Romeo</t>
   </si>
   <si>
     <t>No.</t>
@@ -720,7 +729,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,12 +763,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1432,7 +1435,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1643,7 +1646,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1713,14 +1720,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1771,10 +1770,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2083,11 +2082,11 @@
   </sheetPr>
   <dimension ref="A1:P616"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:G35"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="8.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -2105,32 +2104,32 @@
   <sheetData>
     <row r="1" spans="1:16" ht="12" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:16" ht="12" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:16" ht="6" customHeight="1" thickBot="1">
@@ -2151,18 +2150,18 @@
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
       <c r="K4" s="46"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2170,24 +2169,24 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="74" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="46"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2195,8 +2194,8 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="12" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2242,17 +2241,15 @@
       <c r="E7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="H7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="J7" s="13"/>
       <c r="M7" s="5"/>
@@ -2262,29 +2259,35 @@
     </row>
     <row r="8" spans="1:16" ht="12" customHeight="1">
       <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -2292,31 +2295,35 @@
     </row>
     <row r="9" spans="1:16" ht="12" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="55" t="s">
+      <c r="H9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -2324,30 +2331,30 @@
     </row>
     <row r="10" spans="1:16" ht="12" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="55" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2362,55 +2369,59 @@
         <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="55"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="80" t="s">
-        <v>34</v>
+      <c r="F12" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J12" s="21"/>
       <c r="M12" s="5"/>
@@ -2419,16 +2430,16 @@
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="81"/>
+        <v>44</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="23"/>
       <c r="J13" s="56"/>
       <c r="M13" s="5"/>
@@ -2453,42 +2464,42 @@
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A15" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="A15" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" ht="12" customHeight="1">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="74" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="75"/>
+      <c r="J16" s="76"/>
       <c r="K16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2496,8 +2507,8 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" ht="12" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
@@ -2536,26 +2547,26 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="55" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K18" s="56"/>
       <c r="M18" s="5"/>
@@ -2565,28 +2576,34 @@
     </row>
     <row r="19" spans="1:16" ht="12" customHeight="1">
       <c r="A19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="I19" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2595,34 +2612,34 @@
     </row>
     <row r="20" spans="1:16" ht="12" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2631,32 +2648,34 @@
     </row>
     <row r="21" spans="1:16" ht="12" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="55" t="s">
+      <c r="H21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="13"/>
       <c r="I21" s="14" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -2671,28 +2690,28 @@
         <v>37</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -2700,32 +2719,32 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A23" s="60" t="s">
-        <v>39</v>
+      <c r="A23" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="D23" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="78" t="s">
+      <c r="G23" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="80" t="s">
-        <v>50</v>
-      </c>
       <c r="I23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="21"/>
       <c r="M23" s="5"/>
@@ -2734,16 +2753,16 @@
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="81"/>
+        <v>44</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="23"/>
       <c r="J24" s="56"/>
       <c r="K24" s="5"/>
@@ -2770,18 +2789,18 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
       <c r="K26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -2789,24 +2808,24 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" ht="12" customHeight="1">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="74" t="s">
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="75"/>
+      <c r="J27" s="76"/>
       <c r="K27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -2814,8 +2833,8 @@
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" ht="12" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="85"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="57" t="s">
         <v>7</v>
       </c>
@@ -2854,28 +2873,26 @@
         <v>16</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="K29" s="56"/>
       <c r="M29" s="5"/>
@@ -2885,34 +2902,32 @@
     </row>
     <row r="30" spans="1:16" ht="12" customHeight="1">
       <c r="A30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="C30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="E30" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F30" s="55"/>
       <c r="G30" s="17" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="J30" s="13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K30" s="56"/>
       <c r="M30" s="5"/>
@@ -2922,30 +2937,34 @@
     </row>
     <row r="31" spans="1:16" ht="12" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="55"/>
+        <v>17</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>51</v>
+      </c>
       <c r="G31" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="I31" s="14" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K31" s="56"/>
       <c r="M31" s="5"/>
@@ -2955,33 +2974,35 @@
     </row>
     <row r="32" spans="1:16" ht="12" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D32" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="55" t="s">
-        <v>34</v>
-      </c>
       <c r="F32" s="55" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="K32" s="56"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -2996,28 +3017,26 @@
         <v>37</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>55</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F33" s="55"/>
       <c r="G33" s="55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="K33" s="56"/>
       <c r="M33" s="5"/>
@@ -3026,32 +3045,30 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A34" s="60" t="s">
-        <v>39</v>
+      <c r="A34" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="59" t="s">
-        <v>47</v>
+      <c r="D34" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="56"/>
@@ -3061,16 +3078,16 @@
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="81"/>
+        <v>44</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="80"/>
       <c r="I35" s="23"/>
       <c r="J35" s="56"/>
       <c r="K35" s="56"/>
@@ -3097,18 +3114,18 @@
       <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64"/>
+      <c r="A37" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
       <c r="K37" s="56"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -3116,32 +3133,32 @@
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" ht="9" customHeight="1">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="74" t="s">
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="75"/>
+      <c r="J38" s="76"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
     <row r="39" spans="1:16" ht="12" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="57" t="s">
         <v>7</v>
       </c>
@@ -3179,19 +3196,21 @@
         <v>16</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="55"/>
+        <v>46</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="55"/>
       <c r="G40" s="55" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H40" s="13"/>
-      <c r="I40" s="59" t="s">
-        <v>58</v>
+      <c r="I40" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="J40" s="13"/>
       <c r="M40" s="5"/>
@@ -3201,34 +3220,34 @@
     </row>
     <row r="41" spans="1:16" ht="12" customHeight="1">
       <c r="A41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="G41" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="I41" s="14" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -3237,32 +3256,32 @@
     </row>
     <row r="42" spans="1:16" ht="12" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F42" s="55"/>
       <c r="G42" s="17" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -3271,32 +3290,32 @@
     </row>
     <row r="43" spans="1:16" ht="12" customHeight="1">
       <c r="A43" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F43" s="55"/>
       <c r="G43" s="18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -3311,28 +3330,28 @@
         <v>37</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="55" t="s">
-        <v>55</v>
-      </c>
       <c r="I44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -3340,32 +3359,28 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="78" t="s">
+      <c r="D45" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="80" t="s">
-        <v>61</v>
-      </c>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="79"/>
       <c r="I45" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J45" s="21"/>
       <c r="M45" s="5"/>
@@ -3374,16 +3389,16 @@
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="81"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="78"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="80"/>
       <c r="I46" s="23"/>
       <c r="J46" s="56"/>
       <c r="M46" s="5"/>
@@ -3408,50 +3423,50 @@
       <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A48" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="64"/>
+      <c r="A48" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" ht="11.1" customHeight="1">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="74" t="s">
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="75"/>
+      <c r="J49" s="76"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" ht="12" customHeight="1">
-      <c r="A50" s="73"/>
-      <c r="B50" s="85"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="84"/>
       <c r="C50" s="6" t="s">
         <v>7</v>
       </c>
@@ -3489,21 +3504,23 @@
         <v>16</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="55"/>
+        <v>18</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>55</v>
+      </c>
       <c r="G51" s="55" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="14" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J51" s="13"/>
       <c r="M51" s="5"/>
@@ -3513,34 +3530,34 @@
     </row>
     <row r="52" spans="1:16" ht="12" customHeight="1">
       <c r="A52" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="C52" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F52" s="55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -3549,34 +3566,34 @@
     </row>
     <row r="53" spans="1:16" ht="12" customHeight="1">
       <c r="A53" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F53" s="55" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -3585,34 +3602,34 @@
     </row>
     <row r="54" spans="1:16" ht="12" customHeight="1">
       <c r="A54" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -3627,28 +3644,24 @@
         <v>37</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="55" t="s">
-        <v>42</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F55" s="55"/>
       <c r="G55" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" s="55" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H55" s="55"/>
       <c r="I55" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -3656,28 +3669,24 @@
       <c r="P55" s="5"/>
     </row>
     <row r="56" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A56" s="60" t="s">
-        <v>39</v>
+      <c r="A56" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="80"/>
+        <v>41</v>
+      </c>
+      <c r="C56" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="79"/>
       <c r="I56" s="14" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J56" s="21"/>
       <c r="M56" s="5"/>
@@ -3686,16 +3695,16 @@
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="81"/>
+        <v>44</v>
+      </c>
+      <c r="C57" s="78"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="80"/>
       <c r="I57" s="23"/>
       <c r="J57" s="56"/>
       <c r="M57" s="5"/>
@@ -3720,20 +3729,20 @@
       <c r="P58" s="5"/>
     </row>
     <row r="59" spans="1:16" ht="12" customHeight="1" thickBot="1">
-      <c r="A59" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
+      <c r="A59" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="I59" s="63"/>
-      <c r="J59" s="64"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="64"/>
+      <c r="J59" s="65"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -3741,26 +3750,26 @@
     </row>
     <row r="60" spans="1:16" ht="12" customHeight="1">
       <c r="A60" s="35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="56"/>
       <c r="F60" s="56"/>
       <c r="G60" s="37"/>
       <c r="H60" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -3772,23 +3781,23 @@
         <v>5</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="56"/>
       <c r="F61" s="40"/>
       <c r="G61" s="56"/>
       <c r="H61" s="55" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I61" s="55" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J61" s="55" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -3829,26 +3838,26 @@
     </row>
     <row r="64" spans="1:16" ht="12" customHeight="1">
       <c r="A64" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="87"/>
+        <v>77</v>
+      </c>
+      <c r="B64" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="86"/>
       <c r="D64" s="53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="2"/>
       <c r="G64" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="H64" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="I64" s="91"/>
+        <v>77</v>
+      </c>
+      <c r="H64" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64" s="90"/>
       <c r="J64" s="53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -3859,24 +3868,24 @@
       <c r="A65" s="47">
         <v>1</v>
       </c>
-      <c r="B65" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="71"/>
+      <c r="B65" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="72"/>
       <c r="D65" s="47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E65" s="43"/>
       <c r="F65" s="2"/>
       <c r="G65" s="47">
         <v>31</v>
       </c>
-      <c r="H65" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="I65" s="66"/>
+      <c r="H65" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" s="67"/>
       <c r="J65" s="49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -3887,24 +3896,24 @@
       <c r="A66" s="47">
         <v>2</v>
       </c>
-      <c r="B66" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="66"/>
+      <c r="B66" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="67"/>
       <c r="D66" s="49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E66" s="43"/>
       <c r="F66" s="2"/>
       <c r="G66" s="47">
         <v>32</v>
       </c>
-      <c r="H66" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" s="66"/>
+      <c r="H66" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66" s="67"/>
       <c r="J66" s="49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -3915,24 +3924,24 @@
       <c r="A67" s="47">
         <v>3</v>
       </c>
-      <c r="B67" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="66"/>
+      <c r="B67" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="67"/>
       <c r="D67" s="49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E67" s="43"/>
       <c r="F67" s="2"/>
       <c r="G67" s="47">
         <v>33</v>
       </c>
-      <c r="H67" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="I67" s="71"/>
+      <c r="H67" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" s="72"/>
       <c r="J67" s="47" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -3943,24 +3952,24 @@
       <c r="A68" s="47">
         <v>4</v>
       </c>
-      <c r="B68" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="71"/>
+      <c r="B68" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="72"/>
       <c r="D68" s="47" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E68" s="43"/>
       <c r="F68" s="2"/>
       <c r="G68" s="47">
         <v>34</v>
       </c>
-      <c r="H68" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" s="71"/>
+      <c r="H68" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" s="72"/>
       <c r="J68" s="47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
@@ -3971,24 +3980,24 @@
       <c r="A69" s="47">
         <v>5</v>
       </c>
-      <c r="B69" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="66"/>
+      <c r="B69" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="67"/>
       <c r="D69" s="49" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E69" s="43"/>
       <c r="F69" s="2"/>
       <c r="G69" s="47">
         <v>35</v>
       </c>
-      <c r="H69" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="I69" s="66"/>
+      <c r="H69" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69" s="67"/>
       <c r="J69" s="49" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -3999,24 +4008,24 @@
       <c r="A70" s="47">
         <v>6</v>
       </c>
-      <c r="B70" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="71"/>
+      <c r="B70" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="72"/>
       <c r="D70" s="47" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E70" s="43"/>
       <c r="F70" s="2"/>
       <c r="G70" s="47">
         <v>36</v>
       </c>
-      <c r="H70" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="I70" s="66"/>
+      <c r="H70" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I70" s="67"/>
       <c r="J70" s="49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -4027,24 +4036,24 @@
       <c r="A71" s="47">
         <v>7</v>
       </c>
-      <c r="B71" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="71"/>
+      <c r="B71" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="72"/>
       <c r="D71" s="47" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E71" s="43"/>
       <c r="F71" s="2"/>
       <c r="G71" s="47">
         <v>37</v>
       </c>
-      <c r="H71" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="I71" s="66"/>
+      <c r="H71" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="I71" s="67"/>
       <c r="J71" s="49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -4055,24 +4064,24 @@
       <c r="A72" s="47">
         <v>8</v>
       </c>
-      <c r="B72" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="71"/>
+      <c r="B72" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="72"/>
       <c r="D72" s="47" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E72" s="43"/>
       <c r="F72" s="2"/>
       <c r="G72" s="47">
         <v>38</v>
       </c>
-      <c r="H72" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="I72" s="66"/>
+      <c r="H72" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="I72" s="67"/>
       <c r="J72" s="49" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -4083,24 +4092,24 @@
       <c r="A73" s="47">
         <v>9</v>
       </c>
-      <c r="B73" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="66"/>
+      <c r="B73" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="67"/>
       <c r="D73" s="49" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E73" s="43"/>
       <c r="F73" s="2"/>
       <c r="G73" s="47">
         <v>39</v>
       </c>
-      <c r="H73" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="I73" s="71"/>
+      <c r="H73" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73" s="72"/>
       <c r="J73" s="47" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -4111,24 +4120,24 @@
       <c r="A74" s="47">
         <v>10</v>
       </c>
-      <c r="B74" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="71"/>
+      <c r="B74" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="72"/>
       <c r="D74" s="47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E74" s="43"/>
       <c r="F74" s="2"/>
       <c r="G74" s="47">
         <v>40</v>
       </c>
-      <c r="H74" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="I74" s="66"/>
+      <c r="H74" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="I74" s="67"/>
       <c r="J74" s="49" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -4139,24 +4148,24 @@
       <c r="A75" s="47">
         <v>11</v>
       </c>
-      <c r="B75" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C75" s="66"/>
+      <c r="B75" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="67"/>
       <c r="D75" s="49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E75" s="43"/>
       <c r="F75" s="2"/>
       <c r="G75" s="47">
         <v>41</v>
       </c>
-      <c r="H75" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="I75" s="66"/>
+      <c r="H75" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="I75" s="67"/>
       <c r="J75" s="49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -4167,24 +4176,24 @@
       <c r="A76" s="47">
         <v>12</v>
       </c>
-      <c r="B76" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="66"/>
+      <c r="B76" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="67"/>
       <c r="D76" s="49" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E76" s="43"/>
       <c r="F76" s="2"/>
       <c r="G76" s="47">
         <v>42</v>
       </c>
-      <c r="H76" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="I76" s="66"/>
+      <c r="H76" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="I76" s="67"/>
       <c r="J76" s="49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -4195,24 +4204,24 @@
       <c r="A77" s="47">
         <v>13</v>
       </c>
-      <c r="B77" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="71"/>
+      <c r="B77" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="72"/>
       <c r="D77" s="47" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E77" s="43"/>
       <c r="F77" s="2"/>
       <c r="G77" s="47">
         <v>43</v>
       </c>
-      <c r="H77" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I77" s="66"/>
+      <c r="H77" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="I77" s="67"/>
       <c r="J77" s="47" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -4223,24 +4232,24 @@
       <c r="A78" s="47">
         <v>14</v>
       </c>
-      <c r="B78" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="66"/>
+      <c r="B78" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="67"/>
       <c r="D78" s="49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E78" s="43"/>
       <c r="F78" s="2"/>
       <c r="G78" s="47">
         <v>44</v>
       </c>
-      <c r="H78" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="I78" s="66"/>
+      <c r="H78" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="I78" s="67"/>
       <c r="J78" s="47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -4251,24 +4260,24 @@
       <c r="A79" s="47">
         <v>15</v>
       </c>
-      <c r="B79" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C79" s="71"/>
+      <c r="B79" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="72"/>
       <c r="D79" s="47" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E79" s="44"/>
       <c r="F79" s="2"/>
       <c r="G79" s="47">
         <v>45</v>
       </c>
-      <c r="H79" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="I79" s="66"/>
+      <c r="H79" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="I79" s="67"/>
       <c r="J79" s="49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -4279,24 +4288,24 @@
       <c r="A80" s="47">
         <v>16</v>
       </c>
-      <c r="B80" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" s="71"/>
+      <c r="B80" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="72"/>
       <c r="D80" s="47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E80" s="44"/>
       <c r="F80" s="2"/>
       <c r="G80" s="47">
         <v>46</v>
       </c>
-      <c r="H80" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="I80" s="66"/>
+      <c r="H80" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="I80" s="67"/>
       <c r="J80" s="49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -4307,24 +4316,24 @@
       <c r="A81" s="47">
         <v>17</v>
       </c>
-      <c r="B81" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="71"/>
+      <c r="B81" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="72"/>
       <c r="D81" s="47" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E81" s="44"/>
       <c r="F81" s="2"/>
       <c r="G81" s="47">
         <v>47</v>
       </c>
-      <c r="H81" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="I81" s="66"/>
+      <c r="H81" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I81" s="67"/>
       <c r="J81" s="49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -4335,24 +4344,24 @@
       <c r="A82" s="47">
         <v>18</v>
       </c>
-      <c r="B82" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="71"/>
+      <c r="B82" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="72"/>
       <c r="D82" s="47" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E82" s="44"/>
       <c r="F82" s="2"/>
       <c r="G82" s="47">
         <v>48</v>
       </c>
-      <c r="H82" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="I82" s="66"/>
+      <c r="H82" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="I82" s="67"/>
       <c r="J82" s="49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -4363,24 +4372,24 @@
       <c r="A83" s="47">
         <v>19</v>
       </c>
-      <c r="B83" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="66"/>
+      <c r="B83" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="67"/>
       <c r="D83" s="49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E83" s="43"/>
       <c r="F83" s="2"/>
       <c r="G83" s="47">
         <v>49</v>
       </c>
-      <c r="H83" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="I83" s="66"/>
+      <c r="H83" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" s="67"/>
       <c r="J83" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -4391,24 +4400,24 @@
       <c r="A84" s="47">
         <v>20</v>
       </c>
-      <c r="B84" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" s="66"/>
+      <c r="B84" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="67"/>
       <c r="D84" s="50" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E84" s="43"/>
       <c r="F84" s="45"/>
       <c r="G84" s="47">
         <v>50</v>
       </c>
-      <c r="H84" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="I84" s="66"/>
+      <c r="H84" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="I84" s="67"/>
       <c r="J84" s="47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -4419,24 +4428,24 @@
       <c r="A85" s="47">
         <v>21</v>
       </c>
-      <c r="B85" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="71"/>
+      <c r="B85" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="72"/>
       <c r="D85" s="48" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E85" s="45"/>
       <c r="F85" s="45"/>
       <c r="G85" s="47">
         <v>51</v>
       </c>
-      <c r="H85" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="I85" s="66"/>
+      <c r="H85" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" s="67"/>
       <c r="J85" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -4447,23 +4456,23 @@
       <c r="A86" s="47">
         <v>22</v>
       </c>
-      <c r="B86" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" s="71"/>
+      <c r="B86" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="72"/>
       <c r="D86" s="48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E86" s="45"/>
       <c r="G86" s="47">
         <v>52</v>
       </c>
-      <c r="H86" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="I86" s="66"/>
+      <c r="H86" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="I86" s="67"/>
       <c r="J86" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -4474,23 +4483,23 @@
       <c r="A87" s="47">
         <v>23</v>
       </c>
-      <c r="B87" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="C87" s="66"/>
+      <c r="B87" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="67"/>
       <c r="D87" s="50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E87" s="45"/>
       <c r="G87" s="47">
         <v>53</v>
       </c>
-      <c r="H87" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="I87" s="66"/>
+      <c r="H87" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="I87" s="67"/>
       <c r="J87" s="49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -4501,23 +4510,23 @@
       <c r="A88" s="47">
         <v>24</v>
       </c>
-      <c r="B88" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="66"/>
+      <c r="B88" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="67"/>
       <c r="D88" s="50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E88" s="45"/>
       <c r="G88" s="47">
         <v>54</v>
       </c>
-      <c r="H88" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="I88" s="66"/>
+      <c r="H88" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I88" s="67"/>
       <c r="J88" s="47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -4528,22 +4537,22 @@
       <c r="A89" s="47">
         <v>25</v>
       </c>
-      <c r="B89" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="C89" s="71"/>
+      <c r="B89" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="72"/>
       <c r="D89" s="48" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G89" s="47">
         <v>55</v>
       </c>
-      <c r="H89" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="I89" s="66"/>
+      <c r="H89" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="I89" s="67"/>
       <c r="J89" s="49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -4554,22 +4563,22 @@
       <c r="A90" s="47">
         <v>26</v>
       </c>
-      <c r="B90" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="C90" s="71"/>
+      <c r="B90" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="72"/>
       <c r="D90" s="48" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G90" s="47">
         <v>56</v>
       </c>
-      <c r="H90" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="I90" s="66"/>
+      <c r="H90" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="I90" s="67"/>
       <c r="J90" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -4580,22 +4589,22 @@
       <c r="A91" s="47">
         <v>27</v>
       </c>
-      <c r="B91" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91" s="71"/>
+      <c r="B91" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="72"/>
       <c r="D91" s="48" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G91" s="47">
         <v>57</v>
       </c>
-      <c r="H91" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="I91" s="66"/>
+      <c r="H91" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="I91" s="67"/>
       <c r="J91" s="47" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -4606,22 +4615,22 @@
       <c r="A92" s="47">
         <v>28</v>
       </c>
-      <c r="B92" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="C92" s="66"/>
+      <c r="B92" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="67"/>
       <c r="D92" s="49" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G92" s="47">
         <v>58</v>
       </c>
-      <c r="H92" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="I92" s="66"/>
+      <c r="H92" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="I92" s="67"/>
       <c r="J92" s="47" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -4632,22 +4641,22 @@
       <c r="A93" s="47">
         <v>29</v>
       </c>
-      <c r="B93" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="66"/>
+      <c r="B93" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="67"/>
       <c r="D93" s="49" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G93" s="47">
         <v>59</v>
       </c>
-      <c r="H93" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="I93" s="66"/>
+      <c r="H93" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="I93" s="67"/>
       <c r="J93" s="49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -4658,22 +4667,22 @@
       <c r="A94" s="47">
         <v>30</v>
       </c>
-      <c r="B94" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="66"/>
+      <c r="B94" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="67"/>
       <c r="D94" s="49" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G94" s="47">
         <v>60</v>
       </c>
-      <c r="H94" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="I94" s="66"/>
+      <c r="H94" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="I94" s="67"/>
       <c r="J94" s="49" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -5286,21 +5295,6 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B92:C92"/>
     <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="H65:I65"/>
     <mergeCell ref="H87:I87"/>
@@ -5325,6 +5319,21 @@
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
     <mergeCell ref="H83:I83"/>
     <mergeCell ref="H84:I84"/>
     <mergeCell ref="H85:I85"/>
@@ -5334,15 +5343,7 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="A4:J4"/>
@@ -5356,6 +5357,16 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="H12:H13"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="H70:I70"/>
@@ -5378,8 +5389,6 @@
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.8" right="0.2" top="0.6" bottom="0.4" header="0.3" footer="0.3"/>
